--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Reln-Vldlr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Reln-Vldlr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Reln</t>
   </si>
   <si>
     <t>Vldlr</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0.06455366666666666</v>
+      </c>
+      <c r="H2">
+        <v>0.193661</v>
+      </c>
+      <c r="I2">
+        <v>0.01357839286814829</v>
+      </c>
+      <c r="J2">
+        <v>0.01357839286814829</v>
+      </c>
+      <c r="K2">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="L2">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G2">
-        <v>0.05950533333333333</v>
-      </c>
-      <c r="H2">
-        <v>0.178516</v>
-      </c>
-      <c r="I2">
-        <v>0.01803537323915772</v>
-      </c>
-      <c r="J2">
-        <v>0.01803537323915772</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M2">
-        <v>0.1112246666666667</v>
+        <v>0.1528053333333333</v>
       </c>
       <c r="N2">
-        <v>0.333674</v>
+        <v>0.458416</v>
       </c>
       <c r="O2">
-        <v>0.008007360146089434</v>
+        <v>0.01103433215988526</v>
       </c>
       <c r="P2">
-        <v>0.008007360146089434</v>
+        <v>0.01103433215988526</v>
       </c>
       <c r="Q2">
-        <v>0.006618460864888888</v>
+        <v>0.009864144552888887</v>
       </c>
       <c r="R2">
-        <v>0.059566147784</v>
+        <v>0.08877730097599999</v>
       </c>
       <c r="S2">
-        <v>0.0001444157288950794</v>
+        <v>0.0001498284971045653</v>
       </c>
       <c r="T2">
-        <v>0.0001444157288950794</v>
+        <v>0.0001498284971045653</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.05950533333333333</v>
+        <v>0.06455366666666666</v>
       </c>
       <c r="H3">
-        <v>0.178516</v>
+        <v>0.193661</v>
       </c>
       <c r="I3">
-        <v>0.01803537323915772</v>
+        <v>0.01357839286814829</v>
       </c>
       <c r="J3">
-        <v>0.01803537323915772</v>
+        <v>0.01357839286814829</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>35.475684</v>
       </c>
       <c r="O3">
-        <v>0.851329675722</v>
+        <v>0.8539197603380489</v>
       </c>
       <c r="P3">
-        <v>0.8513296757219999</v>
+        <v>0.8539197603380488</v>
       </c>
       <c r="Q3">
-        <v>0.7036641338826667</v>
+        <v>0.7633618265693334</v>
       </c>
       <c r="R3">
-        <v>6.332977204944</v>
+        <v>6.870256439124001</v>
       </c>
       <c r="S3">
-        <v>0.01535404845121738</v>
+        <v>0.01159485798374506</v>
       </c>
       <c r="T3">
-        <v>0.01535404845121738</v>
+        <v>0.01159485798374506</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.05950533333333333</v>
+        <v>0.06455366666666666</v>
       </c>
       <c r="H4">
-        <v>0.178516</v>
+        <v>0.193661</v>
       </c>
       <c r="I4">
-        <v>0.01803537323915772</v>
+        <v>0.01357839286814829</v>
       </c>
       <c r="J4">
-        <v>0.01803537323915772</v>
+        <v>0.01357839286814829</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.915914</v>
+        <v>1.712948333333333</v>
       </c>
       <c r="N4">
-        <v>5.747742000000001</v>
+        <v>5.138845</v>
       </c>
       <c r="O4">
-        <v>0.1379317544094067</v>
+        <v>0.1236949029880405</v>
       </c>
       <c r="P4">
-        <v>0.1379317544094067</v>
+        <v>0.1236949029880405</v>
       </c>
       <c r="Q4">
-        <v>0.114007101208</v>
+        <v>0.1105770957272222</v>
       </c>
       <c r="R4">
-        <v>1.026063910872</v>
+        <v>0.995193861545</v>
       </c>
       <c r="S4">
-        <v>0.002487650672305489</v>
+        <v>0.001679577988559104</v>
       </c>
       <c r="T4">
-        <v>0.002487650672305489</v>
+        <v>0.001679577988559104</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.06455366666666666</v>
+      </c>
+      <c r="H5">
+        <v>0.193661</v>
+      </c>
+      <c r="I5">
+        <v>0.01357839286814829</v>
+      </c>
+      <c r="J5">
+        <v>0.01357839286814829</v>
+      </c>
+      <c r="K5">
         <v>2</v>
       </c>
-      <c r="F5">
+      <c r="L5">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G5">
-        <v>0.05950533333333333</v>
-      </c>
-      <c r="H5">
-        <v>0.178516</v>
-      </c>
-      <c r="I5">
-        <v>0.01803537323915772</v>
-      </c>
-      <c r="J5">
-        <v>0.01803537323915772</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M5">
-        <v>0.03793733333333333</v>
+        <v>0.1571906666666667</v>
       </c>
       <c r="N5">
-        <v>0.113812</v>
+        <v>0.471572</v>
       </c>
       <c r="O5">
-        <v>0.002731209722503793</v>
+        <v>0.01135100451402528</v>
       </c>
       <c r="P5">
-        <v>0.002731209722503793</v>
+        <v>0.01135100451402528</v>
       </c>
       <c r="Q5">
-        <v>0.002257473665777777</v>
+        <v>0.01014723389911111</v>
       </c>
       <c r="R5">
-        <v>0.020317262992</v>
+        <v>0.09132510509199999</v>
       </c>
       <c r="S5">
-        <v>4.92583867397723E-05</v>
+        <v>0.0001541283987395599</v>
       </c>
       <c r="T5">
-        <v>4.925838673977229E-05</v>
+        <v>0.0001541283987395599</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -785,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.06084699999999999</v>
+        <v>0.06084700000000001</v>
       </c>
       <c r="H6">
         <v>0.182541</v>
       </c>
       <c r="I6">
-        <v>0.01844201677412159</v>
+        <v>0.01279872257472933</v>
       </c>
       <c r="J6">
-        <v>0.01844201677412159</v>
+        <v>0.01279872257472933</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.1112246666666667</v>
+        <v>0.1528053333333333</v>
       </c>
       <c r="N6">
-        <v>0.333674</v>
+        <v>0.458416</v>
       </c>
       <c r="O6">
-        <v>0.008007360146089434</v>
+        <v>0.01103433215988526</v>
       </c>
       <c r="P6">
-        <v>0.008007360146089434</v>
+        <v>0.01103433215988526</v>
       </c>
       <c r="Q6">
-        <v>0.006767687292666665</v>
+        <v>0.009297746117333333</v>
       </c>
       <c r="R6">
-        <v>0.06090918563399999</v>
+        <v>0.083679715056</v>
       </c>
       <c r="S6">
-        <v>0.000147671870130614</v>
+        <v>0.0001412253561117854</v>
       </c>
       <c r="T6">
-        <v>0.000147671870130614</v>
+        <v>0.0001412253561117853</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.06084699999999999</v>
+        <v>0.06084700000000001</v>
       </c>
       <c r="H7">
         <v>0.182541</v>
       </c>
       <c r="I7">
-        <v>0.01844201677412159</v>
+        <v>0.01279872257472933</v>
       </c>
       <c r="J7">
-        <v>0.01844201677412159</v>
+        <v>0.01279872257472933</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>35.475684</v>
       </c>
       <c r="O7">
-        <v>0.851329675722</v>
+        <v>0.8539197603380489</v>
       </c>
       <c r="P7">
-        <v>0.8513296757219999</v>
+        <v>0.8539197603380488</v>
       </c>
       <c r="Q7">
-        <v>0.719529648116</v>
+        <v>0.7195296481160002</v>
       </c>
       <c r="R7">
-        <v>6.475766833043999</v>
+        <v>6.475766833044</v>
       </c>
       <c r="S7">
-        <v>0.01570023615997262</v>
+        <v>0.01092908211364605</v>
       </c>
       <c r="T7">
-        <v>0.01570023615997261</v>
+        <v>0.01092908211364605</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.06084699999999999</v>
+        <v>0.06084700000000001</v>
       </c>
       <c r="H8">
         <v>0.182541</v>
       </c>
       <c r="I8">
-        <v>0.01844201677412159</v>
+        <v>0.01279872257472933</v>
       </c>
       <c r="J8">
-        <v>0.01844201677412159</v>
+        <v>0.01279872257472933</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.915914</v>
+        <v>1.712948333333333</v>
       </c>
       <c r="N8">
-        <v>5.747742000000001</v>
+        <v>5.138845</v>
       </c>
       <c r="O8">
-        <v>0.1379317544094067</v>
+        <v>0.1236949029880405</v>
       </c>
       <c r="P8">
-        <v>0.1379317544094067</v>
+        <v>0.1236949029880405</v>
       </c>
       <c r="Q8">
-        <v>0.116577619158</v>
+        <v>0.1042277672383333</v>
       </c>
       <c r="R8">
-        <v>1.049198572422</v>
+        <v>0.938049905145</v>
       </c>
       <c r="S8">
-        <v>0.002543739728502298</v>
+        <v>0.001583136747251989</v>
       </c>
       <c r="T8">
-        <v>0.002543739728502298</v>
+        <v>0.001583136747251988</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,14 +956,14 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.06084699999999999</v>
+        <v>0.06084700000000001</v>
       </c>
       <c r="H9">
         <v>0.182541</v>
       </c>
       <c r="I9">
-        <v>0.01844201677412159</v>
+        <v>0.01279872257472933</v>
       </c>
       <c r="J9">
-        <v>0.01844201677412159</v>
+        <v>0.01279872257472933</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.03793733333333333</v>
+        <v>0.1571906666666667</v>
       </c>
       <c r="N9">
-        <v>0.113812</v>
+        <v>0.471572</v>
       </c>
       <c r="O9">
-        <v>0.002731209722503793</v>
+        <v>0.01135100451402528</v>
       </c>
       <c r="P9">
-        <v>0.002731209722503793</v>
+        <v>0.01135100451402528</v>
       </c>
       <c r="Q9">
-        <v>0.002308372921333333</v>
+        <v>0.009564580494666668</v>
       </c>
       <c r="R9">
-        <v>0.020775356292</v>
+        <v>0.086081224452</v>
       </c>
       <c r="S9">
-        <v>5.036901551605892E-05</v>
+        <v>0.0001452783577195099</v>
       </c>
       <c r="T9">
-        <v>5.036901551605891E-05</v>
+        <v>0.0001452783577195099</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.179015666666666</v>
+        <v>4.62452</v>
       </c>
       <c r="H10">
-        <v>9.537046999999999</v>
+        <v>13.87356</v>
       </c>
       <c r="I10">
-        <v>0.9635226099867207</v>
+        <v>0.9727340463997778</v>
       </c>
       <c r="J10">
-        <v>0.9635226099867207</v>
+        <v>0.9727340463997778</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.1112246666666667</v>
+        <v>0.1528053333333333</v>
       </c>
       <c r="N10">
-        <v>0.333674</v>
+        <v>0.458416</v>
       </c>
       <c r="O10">
-        <v>0.008007360146089434</v>
+        <v>0.01103433215988526</v>
       </c>
       <c r="P10">
-        <v>0.008007360146089434</v>
+        <v>0.01103433215988526</v>
       </c>
       <c r="Q10">
-        <v>0.3535849578531111</v>
+        <v>0.7066513201066665</v>
       </c>
       <c r="R10">
-        <v>3.182264620678</v>
+        <v>6.35986188096</v>
       </c>
       <c r="S10">
-        <v>0.00771527254706374</v>
+        <v>0.01073347057120439</v>
       </c>
       <c r="T10">
-        <v>0.00771527254706374</v>
+        <v>0.01073347057120439</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.179015666666666</v>
+        <v>4.62452</v>
       </c>
       <c r="H11">
-        <v>9.537046999999999</v>
+        <v>13.87356</v>
       </c>
       <c r="I11">
-        <v>0.9635226099867207</v>
+        <v>0.9727340463997778</v>
       </c>
       <c r="J11">
-        <v>0.9635226099867207</v>
+        <v>0.9727340463997778</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>35.475684</v>
       </c>
       <c r="O11">
-        <v>0.851329675722</v>
+        <v>0.8539197603380489</v>
       </c>
       <c r="P11">
-        <v>0.8513296757219999</v>
+        <v>0.8539197603380488</v>
       </c>
       <c r="Q11">
-        <v>37.59258507390533</v>
+        <v>54.68600339056</v>
       </c>
       <c r="R11">
-        <v>338.333265665148</v>
+        <v>492.17403051504</v>
       </c>
       <c r="S11">
-        <v>0.82027539111081</v>
+        <v>0.8306368237743589</v>
       </c>
       <c r="T11">
-        <v>0.8202753911108099</v>
+        <v>0.8306368237743588</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.179015666666666</v>
+        <v>4.62452</v>
       </c>
       <c r="H12">
-        <v>9.537046999999999</v>
+        <v>13.87356</v>
       </c>
       <c r="I12">
-        <v>0.9635226099867207</v>
+        <v>0.9727340463997778</v>
       </c>
       <c r="J12">
-        <v>0.9635226099867207</v>
+        <v>0.9727340463997778</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.915914</v>
+        <v>1.712948333333333</v>
       </c>
       <c r="N12">
-        <v>5.747742000000001</v>
+        <v>5.138845</v>
       </c>
       <c r="O12">
-        <v>0.1379317544094067</v>
+        <v>0.1236949029880405</v>
       </c>
       <c r="P12">
-        <v>0.1379317544094067</v>
+        <v>0.1236949029880405</v>
       </c>
       <c r="Q12">
-        <v>6.090720621986</v>
+        <v>7.921563826466666</v>
       </c>
       <c r="R12">
-        <v>54.816485597874</v>
+        <v>71.2940744382</v>
       </c>
       <c r="S12">
-        <v>0.1329003640085989</v>
+        <v>0.1203222435025846</v>
       </c>
       <c r="T12">
-        <v>0.1329003640085989</v>
+        <v>0.1203222435025846</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>4.62452</v>
+      </c>
+      <c r="H13">
+        <v>13.87356</v>
+      </c>
+      <c r="I13">
+        <v>0.9727340463997778</v>
+      </c>
+      <c r="J13">
+        <v>0.9727340463997778</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.1571906666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.471572</v>
+      </c>
+      <c r="O13">
+        <v>0.01135100451402528</v>
+      </c>
+      <c r="P13">
+        <v>0.01135100451402528</v>
+      </c>
+      <c r="Q13">
+        <v>0.7269313818133333</v>
+      </c>
+      <c r="R13">
+        <v>6.54238243632</v>
+      </c>
+      <c r="S13">
+        <v>0.01104150855162995</v>
+      </c>
+      <c r="T13">
+        <v>0.01104150855162995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>3.179015666666666</v>
-      </c>
-      <c r="H13">
-        <v>9.537046999999999</v>
-      </c>
-      <c r="I13">
-        <v>0.9635226099867207</v>
-      </c>
-      <c r="J13">
-        <v>0.9635226099867207</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M13">
-        <v>0.03793733333333333</v>
-      </c>
-      <c r="N13">
-        <v>0.113812</v>
-      </c>
-      <c r="O13">
-        <v>0.002731209722503793</v>
-      </c>
-      <c r="P13">
-        <v>0.002731209722503793</v>
-      </c>
-      <c r="Q13">
-        <v>0.1206033770182222</v>
-      </c>
-      <c r="R13">
-        <v>1.085430393164</v>
-      </c>
-      <c r="S13">
-        <v>0.002631582320247962</v>
-      </c>
-      <c r="T13">
-        <v>0.002631582320247961</v>
+      <c r="G14">
+        <v>0.004225666666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.012677</v>
+      </c>
+      <c r="I14">
+        <v>0.0008888381573446169</v>
+      </c>
+      <c r="J14">
+        <v>0.000888838157344617</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.1528053333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.458416</v>
+      </c>
+      <c r="O14">
+        <v>0.01103433215988526</v>
+      </c>
+      <c r="P14">
+        <v>0.01103433215988526</v>
+      </c>
+      <c r="Q14">
+        <v>0.0006457044035555555</v>
+      </c>
+      <c r="R14">
+        <v>0.005811339632000001</v>
+      </c>
+      <c r="S14">
+        <v>9.807735464520861E-06</v>
+      </c>
+      <c r="T14">
+        <v>9.807735464520863E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.004225666666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.012677</v>
+      </c>
+      <c r="I15">
+        <v>0.0008888381573446169</v>
+      </c>
+      <c r="J15">
+        <v>0.000888838157344617</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>11.825228</v>
+      </c>
+      <c r="N15">
+        <v>35.475684</v>
+      </c>
+      <c r="O15">
+        <v>0.8539197603380489</v>
+      </c>
+      <c r="P15">
+        <v>0.8539197603380488</v>
+      </c>
+      <c r="Q15">
+        <v>0.04996947178533333</v>
+      </c>
+      <c r="R15">
+        <v>0.449725246068</v>
+      </c>
+      <c r="S15">
+        <v>0.0007589964662990283</v>
+      </c>
+      <c r="T15">
+        <v>0.0007589964662990283</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.004225666666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.012677</v>
+      </c>
+      <c r="I16">
+        <v>0.0008888381573446169</v>
+      </c>
+      <c r="J16">
+        <v>0.000888838157344617</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.712948333333333</v>
+      </c>
+      <c r="N16">
+        <v>5.138845</v>
+      </c>
+      <c r="O16">
+        <v>0.1236949029880405</v>
+      </c>
+      <c r="P16">
+        <v>0.1236949029880405</v>
+      </c>
+      <c r="Q16">
+        <v>0.007238348673888889</v>
+      </c>
+      <c r="R16">
+        <v>0.065145138065</v>
+      </c>
+      <c r="S16">
+        <v>0.0001099447496448111</v>
+      </c>
+      <c r="T16">
+        <v>0.0001099447496448111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.004225666666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.012677</v>
+      </c>
+      <c r="I17">
+        <v>0.0008888381573446169</v>
+      </c>
+      <c r="J17">
+        <v>0.000888838157344617</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.1571906666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.471572</v>
+      </c>
+      <c r="O17">
+        <v>0.01135100451402528</v>
+      </c>
+      <c r="P17">
+        <v>0.01135100451402528</v>
+      </c>
+      <c r="Q17">
+        <v>0.0006642353604444445</v>
+      </c>
+      <c r="R17">
+        <v>0.005978118244</v>
+      </c>
+      <c r="S17">
+        <v>1.008920593625666E-05</v>
+      </c>
+      <c r="T17">
+        <v>1.008920593625666E-05</v>
       </c>
     </row>
   </sheetData>
